--- a/excel files/school_mon_hoc.xlsx
+++ b/excel files/school_mon_hoc.xlsx
@@ -36,76 +36,76 @@
     <t>ten_mon</t>
   </si>
   <si>
-    <t>ToÃ¡n</t>
-  </si>
-  <si>
-    <t>ToÃ¡n 6</t>
-  </si>
-  <si>
-    <t>LÃ½</t>
-  </si>
-  <si>
-    <t>LÃ½ 6</t>
-  </si>
-  <si>
-    <t>HÃ³a</t>
-  </si>
-  <si>
-    <t>Ngoáº¡i ngá»¯</t>
-  </si>
-  <si>
-    <t>Ngoáº¡i ngá»¯ 6</t>
-  </si>
-  <si>
-    <t>VÄƒn</t>
-  </si>
-  <si>
-    <t>VÄƒn 6</t>
-  </si>
-  <si>
-    <t>ToÃ¡n 7</t>
-  </si>
-  <si>
-    <t>ToÃ¡n 8</t>
-  </si>
-  <si>
-    <t>ToÃ¡n 9</t>
-  </si>
-  <si>
-    <t>LÃ½ 8</t>
-  </si>
-  <si>
-    <t>LÃ½ 7</t>
-  </si>
-  <si>
-    <t>LÃ½ 9</t>
-  </si>
-  <si>
-    <t>HÃ³a 9</t>
-  </si>
-  <si>
-    <t>HÃ³a 6</t>
-  </si>
-  <si>
-    <t>HÃ³a 7</t>
-  </si>
-  <si>
-    <t>Ngoáº¡i ngá»¯ 7</t>
-  </si>
-  <si>
-    <t>Ngoáº¡i ngá»¯ 8</t>
-  </si>
-  <si>
-    <t>Ngoáº¡i ngá»¯  9</t>
-  </si>
-  <si>
-    <t>VÄƒn 7</t>
-  </si>
-  <si>
-    <t>VÄƒn 8</t>
-  </si>
-  <si>
-    <t>VÄƒn 9</t>
+    <t>Toán</t>
+  </si>
+  <si>
+    <t>Toán 6</t>
+  </si>
+  <si>
+    <t>Lý</t>
+  </si>
+  <si>
+    <t>Lý 6</t>
+  </si>
+  <si>
+    <t>Hóa</t>
+  </si>
+  <si>
+    <t>Ngoại ngữ</t>
+  </si>
+  <si>
+    <t>Ngoại ngữ 6</t>
+  </si>
+  <si>
+    <t>Văn</t>
+  </si>
+  <si>
+    <t>Văn 6</t>
+  </si>
+  <si>
+    <t>Toán 7</t>
+  </si>
+  <si>
+    <t>Toán 8</t>
+  </si>
+  <si>
+    <t>Toán 9</t>
+  </si>
+  <si>
+    <t>Lý 8</t>
+  </si>
+  <si>
+    <t>Lý 7</t>
+  </si>
+  <si>
+    <t>Lý 9</t>
+  </si>
+  <si>
+    <t>Hóa 9</t>
+  </si>
+  <si>
+    <t>Hóa 6</t>
+  </si>
+  <si>
+    <t>Hóa 7</t>
+  </si>
+  <si>
+    <t>Ngoại ngữ 7</t>
+  </si>
+  <si>
+    <t>Ngoại ngữ 8</t>
+  </si>
+  <si>
+    <t>Ngoại ngữ 9</t>
+  </si>
+  <si>
+    <t>Văn 7</t>
+  </si>
+  <si>
+    <t>Văn 8</t>
+  </si>
+  <si>
+    <t>Văn 9</t>
   </si>
 </sst>
 </file>
@@ -914,7 +914,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -1277,5 +1279,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>